--- a/reports/product_detail_China_2019-2020-2021_M_Angola.xlsx
+++ b/reports/product_detail_China_2019-2020-2021_M_Angola.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrc/develop/cipf-comtrade/reports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C694DA-73CE-8D4A-A958-4502E5DA7088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24800" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">detail!$A$3:$K$153</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -454,11 +463,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,11 +531,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,7 +585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,9 +617,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,6 +669,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -809,27 +862,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A3:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="100.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="100.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -861,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>35</v>
       </c>
@@ -896,7 +952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>36</v>
       </c>
@@ -928,12 +984,12 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>97.6399628204957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>97.639962820495697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -945,28 +1001,28 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
         <v>144</v>
       </c>
       <c r="I6" s="1">
-        <v>23224440673</v>
+        <v>343261</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>97.6399628204957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>1.963791084039155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>287</v>
       </c>
@@ -1001,9 +1057,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1012,31 +1068,31 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
         <v>144</v>
       </c>
       <c r="I8" s="1">
-        <v>19855580399</v>
+        <v>47364</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>95.35007959748282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.27096874070876248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>288</v>
       </c>
@@ -1068,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>95.35007959748282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>95.350079597482818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>157</v>
       </c>
@@ -1106,9 +1162,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1117,31 +1173,31 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
         <v>144</v>
       </c>
       <c r="I11" s="1">
-        <v>14158846514</v>
+        <v>13490</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>96.40426586219493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>7.7176089691774488E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>158</v>
       </c>
@@ -1173,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>96.40426586219493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>96.404265862194933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>290</v>
       </c>
@@ -1208,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>3.687008927177495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>3.6870089271774948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>38</v>
       </c>
@@ -1246,7 +1302,7 @@
         <v>2.3600371795043</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>160</v>
       </c>
@@ -1278,12 +1334,12 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>3.595734137805066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>3.5957341378050658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1292,33 +1348,33 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
         <v>144</v>
       </c>
       <c r="I16" s="1">
-        <v>423920134</v>
+        <v>2435759</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.035740970931845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>13.9349410712785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1330,30 +1386,30 @@
         <v>2019</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
         <v>144</v>
       </c>
       <c r="I17" s="1">
-        <v>373675128</v>
+        <v>5885571</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.571001261928388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>33.671264298243663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1362,33 +1418,33 @@
         <v>11</v>
       </c>
       <c r="D18">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
         <v>144</v>
       </c>
       <c r="I18" s="1">
-        <v>311610811</v>
+        <v>8747855</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.121684943718726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>50.0463485612037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>291</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1397,31 +1453,31 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
         <v>144</v>
       </c>
       <c r="I19" s="1">
-        <v>305044314</v>
+        <v>3583</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.464877834652691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>2.0498289797303781E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>294</v>
       </c>
@@ -1456,9 +1512,9 @@
         <v>0.9629114753396858</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1467,33 +1523,33 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="H21" t="s">
         <v>144</v>
       </c>
       <c r="I21" s="1">
-        <v>200515472</v>
+        <v>2624</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9629114753396858</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>1.501186503715465E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1502,33 +1558,33 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H22" t="s">
         <v>144</v>
       </c>
       <c r="I22" s="1">
-        <v>159031496</v>
+        <v>2165807</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.082808165600727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>99.470454045469296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1540,30 +1596,30 @@
         <v>2019</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
         <v>144</v>
       </c>
       <c r="I23" s="1">
-        <v>94400403</v>
+        <v>3750</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3968772367411843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0.17222873629575949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1575,30 +1631,30 @@
         <v>2019</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="H24" t="s">
         <v>144</v>
       </c>
       <c r="I24" s="1">
-        <v>93278057</v>
+        <v>7780</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3921586808347278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0.35731721823493562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1607,33 +1663,33 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
         <v>144</v>
       </c>
       <c r="I25" s="1">
-        <v>57461375</v>
+        <v>23224440673</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3912410284856119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>97.639962820495697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1642,31 +1698,31 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
         <v>144</v>
       </c>
       <c r="I26" s="1">
-        <v>38813644</v>
+        <v>93278057</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.1863901215929579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0.39215868083472782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>264</v>
       </c>
@@ -1701,7 +1757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>272</v>
       </c>
@@ -1733,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>97.68922821822066</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>97.689228218220663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>142</v>
       </c>
@@ -1771,7 +1827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>148</v>
       </c>
@@ -1803,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>95.30659950923854</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>95.306599509238538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>215</v>
       </c>
@@ -1841,7 +1897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>216</v>
       </c>
@@ -1873,12 +1929,12 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>99.99021221359857</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>99.990212213598568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1887,31 +1943,31 @@
         <v>11</v>
       </c>
       <c r="D33">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
         <v>144</v>
       </c>
       <c r="I33" s="1">
-        <v>20012781</v>
+        <v>373675128</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>99.99021221359857</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>1.571001261928388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>15</v>
       </c>
@@ -1946,9 +2002,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1957,31 +2013,31 @@
         <v>11</v>
       </c>
       <c r="D35">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
         <v>144</v>
       </c>
       <c r="I35" s="1">
-        <v>16997045</v>
+        <v>94400403</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>55.87360101463062</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0.3968772367411843</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>278</v>
       </c>
@@ -2016,7 +2072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>336</v>
       </c>
@@ -2051,9 +2107,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -2062,31 +2118,31 @@
         <v>11</v>
       </c>
       <c r="D38">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H38" t="s">
         <v>144</v>
       </c>
       <c r="I38" s="1">
-        <v>14846175</v>
+        <v>10491522</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>50.44749965858462</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>73.859313702230907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>22</v>
       </c>
@@ -2118,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>83.71761285944736</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>83.717612859447357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>63</v>
       </c>
@@ -2156,7 +2212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>337</v>
       </c>
@@ -2188,12 +2244,12 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>91.70988408635463</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>91.709884086354634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -2202,33 +2258,33 @@
         <v>11</v>
       </c>
       <c r="D42">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="H42" t="s">
         <v>144</v>
       </c>
       <c r="I42" s="1">
-        <v>13144124</v>
+        <v>69726</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>87.80397346640257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>0.49086438623507173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -2237,31 +2293,31 @@
         <v>11</v>
       </c>
       <c r="D43">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H43" t="s">
         <v>144</v>
       </c>
       <c r="I43" s="1">
-        <v>13050986</v>
+        <v>3564290</v>
       </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>44.34742361444565</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>25.09226146937733</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>94</v>
       </c>
@@ -2296,7 +2352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>95</v>
       </c>
@@ -2331,9 +2387,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -2345,65 +2401,65 @@
         <v>2019</v>
       </c>
       <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" t="s">
+        <v>144</v>
+      </c>
+      <c r="I46" s="1">
+        <v>79200</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.55756044215669454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>2019</v>
+      </c>
+      <c r="E47" t="s">
         <v>14</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>29</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>94</v>
       </c>
-      <c r="H46" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" s="1">
+      <c r="H47" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="1">
         <v>12876175</v>
       </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46">
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
-        <v>273</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47">
-        <v>2021</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47" s="1">
-        <v>12720535</v>
-      </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>41.81562720359005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -2412,31 +2468,31 @@
         <v>11</v>
       </c>
       <c r="D48">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H48" t="s">
         <v>144</v>
       </c>
       <c r="I48" s="1">
-        <v>11704627</v>
+        <v>1491683</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>69.20782687712035</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>44.414124072747462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>281</v>
       </c>
@@ -2468,10 +2524,10 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>69.20782687712035</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>69.207826877120354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>64</v>
       </c>
@@ -2503,12 +2559,12 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>74.35017808846598</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>74.350178088465981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2520,28 +2576,28 @@
         <v>2019</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H51" t="s">
         <v>144</v>
       </c>
       <c r="I51" s="1">
-        <v>10491522</v>
+        <v>1866895</v>
       </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>73.85931370223091</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>55.585875927252538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>345</v>
       </c>
@@ -2576,7 +2632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>223</v>
       </c>
@@ -2611,7 +2667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>346</v>
       </c>
@@ -2643,12 +2699,12 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>95.05775286610879</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>95.057752866108785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>347</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2657,7 +2713,7 @@
         <v>11</v>
       </c>
       <c r="D55">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
@@ -2672,16 +2728,16 @@
         <v>144</v>
       </c>
       <c r="I55" s="1">
-        <v>9887820</v>
+        <v>74382</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>95.05775286610879</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>226</v>
       </c>
@@ -2713,12 +2769,12 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>91.48436057489371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>91.484360574893714</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2727,33 +2783,33 @@
         <v>11</v>
       </c>
       <c r="D57">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E57" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="H57" t="s">
         <v>144</v>
       </c>
       <c r="I57" s="1">
-        <v>8747855</v>
+        <v>200700</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>50.0463485612037</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>0.68198126328686903</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2765,28 +2821,28 @@
         <v>2020</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="H58" t="s">
         <v>144</v>
       </c>
       <c r="I58" s="1">
-        <v>8494783</v>
+        <v>22147</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>85.47620113733041</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>7.5255799890454847E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>154</v>
       </c>
@@ -2821,7 +2877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>155</v>
       </c>
@@ -2856,9 +2912,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2870,28 +2926,28 @@
         <v>2020</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H61" t="s">
         <v>144</v>
       </c>
       <c r="I61" s="1">
-        <v>6763117</v>
+        <v>1150147</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>3.9082147684384778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>303</v>
       </c>
@@ -2926,9 +2982,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2937,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="D63">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -2952,16 +3008,16 @@
         <v>144</v>
       </c>
       <c r="I63" s="1">
-        <v>5885571</v>
+        <v>13050986</v>
       </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>33.67126429824366</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>44.347423614445653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>304</v>
       </c>
@@ -2996,9 +3052,9 @@
         <v>76.74608667414698</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -3007,33 +3063,33 @@
         <v>11</v>
       </c>
       <c r="D65">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H65" t="s">
         <v>144</v>
       </c>
       <c r="I65" s="1">
-        <v>5024742</v>
+        <v>14846175</v>
       </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>75.96319473609257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>50.447499658584618</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -3042,31 +3098,31 @@
         <v>11</v>
       </c>
       <c r="D66">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H66" t="s">
         <v>144</v>
       </c>
       <c r="I66" s="1">
-        <v>4926273</v>
+        <v>150581</v>
       </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>29.12836512717853</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>0.51167623620827118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>279</v>
       </c>
@@ -3101,9 +3157,9 @@
         <v>29.12836512717853</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>330</v>
+        <v>153</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -3112,31 +3168,31 @@
         <v>11</v>
       </c>
       <c r="D68">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="H68" t="s">
         <v>144</v>
       </c>
       <c r="I68" s="1">
-        <v>4433542</v>
+        <v>8225</v>
       </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>2.794865914566267E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>329</v>
       </c>
@@ -3171,7 +3227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>328</v>
       </c>
@@ -3206,7 +3262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -3241,9 +3297,9 @@
         <v>25.64982191153403</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -3252,31 +3308,31 @@
         <v>11</v>
       </c>
       <c r="D72">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H72" t="s">
         <v>144</v>
       </c>
       <c r="I72" s="1">
-        <v>3564290</v>
+        <v>6763117</v>
       </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>25.09226146937733</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>102</v>
       </c>
@@ -3311,7 +3367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>177</v>
       </c>
@@ -3346,7 +3402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>19</v>
       </c>
@@ -3381,9 +3437,9 @@
         <v>14.01211716097027</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -3392,31 +3448,31 @@
         <v>11</v>
       </c>
       <c r="D76">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s">
         <v>144</v>
       </c>
       <c r="I76" s="1">
-        <v>2435759</v>
+        <v>14158846514</v>
       </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>13.9349410712785</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>96.404265862194933</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>28</v>
       </c>
@@ -3451,7 +3507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>29</v>
       </c>
@@ -3483,12 +3539,12 @@
         <v>1</v>
       </c>
       <c r="K78">
-        <v>99.4704540454693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>99.470454045469296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -3497,33 +3553,33 @@
         <v>11</v>
       </c>
       <c r="D79">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s">
         <v>144</v>
       </c>
       <c r="I79" s="1">
-        <v>2165807</v>
+        <v>159031496</v>
       </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>99.4704540454693</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>1.0828081656007269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -3532,31 +3588,31 @@
         <v>11</v>
       </c>
       <c r="D80">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s">
         <v>144</v>
       </c>
       <c r="I80" s="1">
-        <v>1866895</v>
+        <v>311610811</v>
       </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>55.58587592725254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>2.121684943718726</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>105</v>
       </c>
@@ -3588,10 +3644,10 @@
         <v>1</v>
       </c>
       <c r="K81">
-        <v>55.58587592725254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>55.585875927252538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>103</v>
       </c>
@@ -3623,12 +3679,12 @@
         <v>1</v>
       </c>
       <c r="K82">
-        <v>44.41412407274746</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>44.414124072747462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -3637,31 +3693,31 @@
         <v>11</v>
       </c>
       <c r="D83">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s">
         <v>144</v>
       </c>
       <c r="I83" s="1">
-        <v>1491683</v>
+        <v>57461375</v>
       </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>44.41412407274746</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>0.39124102848561187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>307</v>
       </c>
@@ -3696,7 +3752,7 @@
         <v>22.52048692715897</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>178</v>
       </c>
@@ -3728,10 +3784,10 @@
         <v>1</v>
       </c>
       <c r="K85">
-        <v>52.12970850571455</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>52.129708505714547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>229</v>
       </c>
@@ -3766,7 +3822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>230</v>
       </c>
@@ -3801,9 +3857,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -3815,30 +3871,30 @@
         <v>2020</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H88" t="s">
         <v>144</v>
       </c>
       <c r="I88" s="1">
-        <v>1355760</v>
+        <v>1351422</v>
       </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>48.842794467850261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -3853,25 +3909,25 @@
         <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="G89" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H89" t="s">
         <v>144</v>
       </c>
       <c r="I89" s="1">
-        <v>1351422</v>
+        <v>90945</v>
       </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>48.84279446785026</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>3.286914037864296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>181</v>
       </c>
@@ -3903,12 +3959,12 @@
         <v>1</v>
       </c>
       <c r="K90">
-        <v>47.86472566040968</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>47.864725660409682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3917,31 +3973,31 @@
         <v>11</v>
       </c>
       <c r="D91">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G91" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="H91" t="s">
         <v>144</v>
       </c>
       <c r="I91" s="1">
-        <v>1311369</v>
+        <v>27306</v>
       </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>19.82505344908753</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>0.98688740137360453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>146</v>
       </c>
@@ -3973,12 +4029,12 @@
         <v>1</v>
       </c>
       <c r="K92">
-        <v>3.908214768438478</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>3.9082147684384778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3990,30 +4046,30 @@
         <v>2020</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H93" t="s">
         <v>144</v>
       </c>
       <c r="I93" s="1">
-        <v>1150147</v>
+        <v>1054443</v>
       </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>3.908214768438478</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>38.109445256228938</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -4028,25 +4084,25 @@
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G94" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="H94" t="s">
         <v>144</v>
       </c>
       <c r="I94" s="1">
-        <v>1054443</v>
+        <v>242611</v>
       </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>38.10944525622894</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>8.768393002807132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>224</v>
       </c>
@@ -4078,12 +4134,12 @@
         <v>1</v>
       </c>
       <c r="K95">
-        <v>8.515639425106295</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>8.5156394251062952</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -4095,28 +4151,28 @@
         <v>2020</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G96" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="H96" t="s">
         <v>144</v>
       </c>
       <c r="I96" s="1">
-        <v>846300</v>
+        <v>154</v>
       </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>8.515639425106295</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>5.5658338757611911E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>341</v>
       </c>
@@ -4148,12 +4204,12 @@
         <v>1</v>
       </c>
       <c r="K97">
-        <v>5.193224702102913</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>5.1932247021029134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -4162,33 +4218,33 @@
         <v>11</v>
       </c>
       <c r="D98">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H98" t="s">
         <v>144</v>
       </c>
       <c r="I98" s="1">
-        <v>777418</v>
+        <v>20012781</v>
       </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>5.193224702102913</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>99.990212213598568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -4200,28 +4256,28 @@
         <v>2020</v>
       </c>
       <c r="E99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="H99" t="s">
         <v>144</v>
       </c>
       <c r="I99" s="1">
-        <v>597102</v>
+        <v>1959</v>
       </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>6.008159437563298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>9.7877864014221522E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>348</v>
       </c>
@@ -4253,12 +4309,12 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>4.942247133891206</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>4.9422471338912057</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>349</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -4267,33 +4323,33 @@
         <v>11</v>
       </c>
       <c r="D101">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H101" t="s">
         <v>144</v>
       </c>
       <c r="I101" s="1">
-        <v>514088</v>
+        <v>846300</v>
       </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>4.942247133891206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>8.5156394251062952</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>344</v>
+        <v>227</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -4302,31 +4358,31 @@
         <v>11</v>
       </c>
       <c r="D102">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E102" t="s">
         <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H102" t="s">
         <v>144</v>
       </c>
       <c r="I102" s="1">
-        <v>463600</v>
+        <v>8494783</v>
       </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>3.096891211542453</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>85.476201137330406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>343</v>
       </c>
@@ -4358,10 +4414,10 @@
         <v>1</v>
       </c>
       <c r="K103">
-        <v>3.096891211542453</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>3.0968912115424532</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>16</v>
       </c>
@@ -4396,9 +4452,9 @@
         <v>2.234759824747917</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -4407,33 +4463,33 @@
         <v>11</v>
       </c>
       <c r="D105">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E105" t="s">
         <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H105" t="s">
         <v>144</v>
       </c>
       <c r="I105" s="1">
-        <v>345783</v>
+        <v>597102</v>
       </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>2.309862669975807</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>6.0081594375632976</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -4442,31 +4498,31 @@
         <v>11</v>
       </c>
       <c r="D106">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F106" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H106" t="s">
         <v>144</v>
       </c>
       <c r="I106" s="1">
-        <v>343261</v>
+        <v>1355760</v>
       </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>1.963791084039155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>265</v>
       </c>
@@ -4498,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="K107">
-        <v>1.08881735751538</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>1.0888173575153799</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>285</v>
       </c>
@@ -4536,9 +4592,9 @@
         <v>1.663009759531058</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -4550,30 +4606,30 @@
         <v>2021</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H109" t="s">
         <v>144</v>
       </c>
       <c r="I109" s="1">
-        <v>281253</v>
+        <v>217666</v>
       </c>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1.663009759531058</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>0.71552338882732769</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -4588,25 +4644,25 @@
         <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G110" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="H110" t="s">
         <v>144</v>
       </c>
       <c r="I110" s="1">
-        <v>279482</v>
+        <v>113558</v>
       </c>
       <c r="J110" t="b">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0.9187282706359249</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>0.37329396868805281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>270</v>
       </c>
@@ -4638,12 +4694,12 @@
         <v>1</v>
       </c>
       <c r="K111">
-        <v>0.9187282706359249</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>0.91872827063592488</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -4652,33 +4708,33 @@
         <v>11</v>
       </c>
       <c r="D112">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G112" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H112" t="s">
         <v>144</v>
       </c>
       <c r="I112" s="1">
-        <v>242611</v>
+        <v>316</v>
       </c>
       <c r="J112" t="b">
         <v>0</v>
       </c>
       <c r="K112">
-        <v>8.768393002807132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>1.0387722054406091E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -4690,28 +4746,28 @@
         <v>2021</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H113" t="s">
         <v>144</v>
       </c>
       <c r="I113" s="1">
-        <v>238926</v>
+        <v>279482</v>
       </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>1.596047949976256</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>0.91872827063592488</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>143</v>
       </c>
@@ -4743,12 +4799,12 @@
         <v>1</v>
       </c>
       <c r="K114">
-        <v>0.7572370631773239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>0.75723706317732387</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -4763,27 +4819,27 @@
         <v>13</v>
       </c>
       <c r="F115" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="H115" t="s">
         <v>144</v>
       </c>
       <c r="I115" s="1">
-        <v>217666</v>
+        <v>12720535</v>
       </c>
       <c r="J115" t="b">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0.7155233888273277</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>41.815627203590047</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -4792,33 +4848,33 @@
         <v>11</v>
       </c>
       <c r="D116">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="H116" t="s">
         <v>144</v>
       </c>
       <c r="I116" s="1">
-        <v>200700</v>
+        <v>16997045</v>
       </c>
       <c r="J116" t="b">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0.681981263286869</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>55.873601014630623</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -4827,33 +4883,33 @@
         <v>11</v>
       </c>
       <c r="D117">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G117" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H117" t="s">
         <v>144</v>
       </c>
       <c r="I117" s="1">
-        <v>150581</v>
+        <v>46993</v>
       </c>
       <c r="J117" t="b">
         <v>0</v>
       </c>
       <c r="K117">
-        <v>0.5116762362082712</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>0.15447791851351431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -4865,30 +4921,30 @@
         <v>2021</v>
       </c>
       <c r="E118" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G118" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H118" t="s">
         <v>144</v>
       </c>
       <c r="I118" s="1">
-        <v>142560</v>
+        <v>44934</v>
       </c>
       <c r="J118" t="b">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>2.155197827386433</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>0.14770946290907699</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -4900,28 +4956,28 @@
         <v>2021</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H119" t="s">
         <v>144</v>
       </c>
       <c r="I119" s="1">
-        <v>113558</v>
+        <v>4926273</v>
       </c>
       <c r="J119" t="b">
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0.3732939686880528</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>29.12836512717853</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>275</v>
       </c>
@@ -4953,12 +5009,12 @@
         <v>1</v>
       </c>
       <c r="K120">
-        <v>0.3021873814225913</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>0.30218738142259127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -4967,33 +5023,33 @@
         <v>11</v>
       </c>
       <c r="D121">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H121" t="s">
         <v>144</v>
       </c>
       <c r="I121" s="1">
-        <v>90945</v>
+        <v>11704627</v>
       </c>
       <c r="J121" t="b">
         <v>0</v>
       </c>
       <c r="K121">
-        <v>3.286914037864296</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>69.207826877120354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -5002,31 +5058,31 @@
         <v>11</v>
       </c>
       <c r="D122">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G122" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H122" t="s">
         <v>144</v>
       </c>
       <c r="I122" s="1">
-        <v>79200</v>
+        <v>135</v>
       </c>
       <c r="J122" t="b">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>0.5575604421566945</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>7.9823617005576062E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>108</v>
       </c>
@@ -5061,7 +5117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>107</v>
       </c>
@@ -5096,9 +5152,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -5107,33 +5163,33 @@
         <v>11</v>
       </c>
       <c r="D125">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G125" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H125" t="s">
         <v>144</v>
       </c>
       <c r="I125" s="1">
-        <v>74382</v>
+        <v>281253</v>
       </c>
       <c r="J125" t="b">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>1.663009759531058</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -5142,33 +5198,33 @@
         <v>11</v>
       </c>
       <c r="D126">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E126" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="G126" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="H126" t="s">
         <v>144</v>
       </c>
       <c r="I126" s="1">
-        <v>69726</v>
+        <v>19855580399</v>
       </c>
       <c r="J126" t="b">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>0.4908643862350717</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>95.350079597482818</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -5180,30 +5236,30 @@
         <v>2021</v>
       </c>
       <c r="E127" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="G127" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="H127" t="s">
         <v>144</v>
       </c>
       <c r="I127" s="1">
-        <v>51786</v>
+        <v>305044314</v>
       </c>
       <c r="J127" t="b">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>0.7828919380543897</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>1.4648778346526909</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -5215,28 +5271,28 @@
         <v>2021</v>
       </c>
       <c r="E128" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="H128" t="s">
         <v>144</v>
       </c>
       <c r="I128" s="1">
-        <v>48514</v>
+        <v>423920134</v>
       </c>
       <c r="J128" t="b">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0.7334263986940615</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>2.0357409709318448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>311</v>
       </c>
@@ -5268,12 +5324,12 @@
         <v>1</v>
       </c>
       <c r="K129">
-        <v>0.7334263986940615</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>0.73342639869406145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -5282,33 +5338,33 @@
         <v>11</v>
       </c>
       <c r="D130">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G130" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="H130" t="s">
         <v>144</v>
       </c>
       <c r="I130" s="1">
-        <v>47364</v>
+        <v>38813644</v>
       </c>
       <c r="J130" t="b">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0.2709687407087625</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>0.1863901215929579</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -5320,30 +5376,30 @@
         <v>2021</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G131" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H131" t="s">
         <v>144</v>
       </c>
       <c r="I131" s="1">
-        <v>46993</v>
+        <v>200515472</v>
       </c>
       <c r="J131" t="b">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0.1544779185135143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>0.9629114753396858</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -5355,30 +5411,30 @@
         <v>2021</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F132" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="H132" t="s">
         <v>144</v>
       </c>
       <c r="I132" s="1">
-        <v>44934</v>
+        <v>5024742</v>
       </c>
       <c r="J132" t="b">
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0.147709462909077</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>75.963194736092575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
@@ -5393,27 +5449,27 @@
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G133" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H133" t="s">
         <v>144</v>
       </c>
       <c r="I133" s="1">
-        <v>35735</v>
+        <v>51786</v>
       </c>
       <c r="J133" t="b">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0.540235650685004</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>0.78289193805438972</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -5422,7 +5478,7 @@
         <v>11</v>
       </c>
       <c r="D134">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E134" t="s">
         <v>17</v>
@@ -5437,18 +5493,18 @@
         <v>144</v>
       </c>
       <c r="I134" s="1">
-        <v>27306</v>
+        <v>35735</v>
       </c>
       <c r="J134" t="b">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0.9868874013736045</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>0.54023565068500401</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>145</v>
+        <v>309</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -5457,33 +5513,33 @@
         <v>11</v>
       </c>
       <c r="D135">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H135" t="s">
         <v>144</v>
       </c>
       <c r="I135" s="1">
-        <v>22147</v>
+        <v>1311369</v>
       </c>
       <c r="J135" t="b">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0.07525579989045485</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>19.82505344908753</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -5492,31 +5548,31 @@
         <v>11</v>
       </c>
       <c r="D136">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F136" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G136" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H136" t="s">
         <v>144</v>
       </c>
       <c r="I136" s="1">
-        <v>13490</v>
+        <v>142560</v>
       </c>
       <c r="J136" t="b">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0.07717608969177449</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>2.155197827386433</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>152</v>
       </c>
@@ -5548,12 +5604,12 @@
         <v>1</v>
       </c>
       <c r="K137">
-        <v>0.02794865914566267</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>2.794865914566267E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -5562,33 +5618,33 @@
         <v>11</v>
       </c>
       <c r="D138">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G138" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H138" t="s">
         <v>144</v>
       </c>
       <c r="I138" s="1">
-        <v>8225</v>
+        <v>48514</v>
       </c>
       <c r="J138" t="b">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>0.02794865914566267</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>0.73342639869406145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -5597,31 +5653,31 @@
         <v>11</v>
       </c>
       <c r="D139">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="H139" t="s">
         <v>144</v>
       </c>
       <c r="I139" s="1">
-        <v>7780</v>
+        <v>4433542</v>
       </c>
       <c r="J139" t="b">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0.3573172182349356</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>33</v>
       </c>
@@ -5653,10 +5709,10 @@
         <v>1</v>
       </c>
       <c r="K140">
-        <v>0.3573172182349356</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>0.35731721823493562</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>25</v>
       </c>
@@ -5688,45 +5744,45 @@
         <v>1</v>
       </c>
       <c r="K141">
-        <v>0.03551015483445844</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>3.5510154834458442E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
+        <v>338</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142">
+        <v>2021</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" t="s">
         <v>32</v>
       </c>
-      <c r="B142" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142">
-        <v>2019</v>
-      </c>
-      <c r="E142" t="s">
-        <v>15</v>
-      </c>
-      <c r="F142" t="s">
-        <v>73</v>
-      </c>
       <c r="G142" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="H142" t="s">
         <v>144</v>
       </c>
       <c r="I142" s="1">
-        <v>3750</v>
+        <v>13144124</v>
       </c>
       <c r="J142" t="b">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>0.1722287362957595</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>87.803973466402567</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>31</v>
       </c>
@@ -5758,12 +5814,12 @@
         <v>1</v>
       </c>
       <c r="K143">
-        <v>0.1722287362957595</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>0.17222873629575949</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>26</v>
+        <v>339</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -5772,33 +5828,33 @@
         <v>11</v>
       </c>
       <c r="D144">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G144" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H144" t="s">
         <v>144</v>
       </c>
       <c r="I144" s="1">
-        <v>3583</v>
+        <v>238926</v>
       </c>
       <c r="J144" t="b">
         <v>0</v>
       </c>
       <c r="K144">
-        <v>0.02049828979730378</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>1.5960479499762561</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>27</v>
+        <v>340</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
@@ -5807,33 +5863,33 @@
         <v>11</v>
       </c>
       <c r="D145">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G145" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H145" t="s">
         <v>144</v>
       </c>
       <c r="I145" s="1">
-        <v>2624</v>
+        <v>345783</v>
       </c>
       <c r="J145" t="b">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>0.01501186503715465</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>2.3098626699758071</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>219</v>
+        <v>342</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
@@ -5842,31 +5898,31 @@
         <v>11</v>
       </c>
       <c r="D146">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="G146" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="H146" t="s">
         <v>144</v>
       </c>
       <c r="I146" s="1">
-        <v>1959</v>
+        <v>777418</v>
       </c>
       <c r="J146" t="b">
         <v>0</v>
       </c>
       <c r="K146">
-        <v>0.009787786401422152</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>5.1932247021029134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>218</v>
       </c>
@@ -5898,12 +5954,12 @@
         <v>1</v>
       </c>
       <c r="K147">
-        <v>0.009787786401422152</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>9.7877864014221522E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -5915,28 +5971,28 @@
         <v>2021</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G148" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H148" t="s">
         <v>144</v>
       </c>
       <c r="I148" s="1">
-        <v>316</v>
+        <v>463600</v>
       </c>
       <c r="J148" t="b">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>0.001038772205440609</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>3.0968912115424532</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>268</v>
       </c>
@@ -5968,10 +6024,10 @@
         <v>1</v>
       </c>
       <c r="K149">
-        <v>0.001038772205440609</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>1.0387722054406091E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>185</v>
       </c>
@@ -6003,12 +6059,12 @@
         <v>1</v>
       </c>
       <c r="K150">
-        <v>0.005565833875761191</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>5.5658338757611911E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>186</v>
+        <v>347</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -6017,31 +6073,31 @@
         <v>11</v>
       </c>
       <c r="D151">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F151" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H151" t="s">
         <v>144</v>
       </c>
       <c r="I151" s="1">
-        <v>154</v>
+        <v>9887820</v>
       </c>
       <c r="J151" t="b">
         <v>0</v>
       </c>
       <c r="K151">
-        <v>0.005565833875761191</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>95.057752866108785</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>283</v>
       </c>
@@ -6073,12 +6129,12 @@
         <v>1</v>
       </c>
       <c r="K152">
-        <v>0.0007982361700557606</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>7.9823617005576062E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -6090,28 +6146,41 @@
         <v>2021</v>
       </c>
       <c r="E153" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F153" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G153" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H153" t="s">
         <v>144</v>
       </c>
       <c r="I153" s="1">
-        <v>135</v>
+        <v>514088</v>
       </c>
       <c r="J153" t="b">
         <v>0</v>
       </c>
       <c r="K153">
-        <v>0.0007982361700557606</v>
+        <v>4.9422471338912057</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:K153" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="FALSO"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:K153">
+      <sortCondition ref="B4:B153"/>
+      <sortCondition ref="C4:C153"/>
+      <sortCondition ref="D4:D153"/>
+      <sortCondition ref="F4:F153"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>